--- a/لیست کارخواست ها.xlsx
+++ b/لیست کارخواست ها.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="موارد کاربرد" sheetId="1" r:id="rId1"/>
+    <sheet name="سناریو" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -81,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="81">
   <si>
     <t>کارخواست</t>
   </si>
@@ -279,6 +280,51 @@
   </si>
   <si>
     <t>تغییر در نحوه نمایش در خروجی های پرینتی</t>
+  </si>
+  <si>
+    <t>از حالت تثبیت در میاید و میتوان ویرایشش کرد</t>
+  </si>
+  <si>
+    <t>از نظر گواهی مرغوبیت اوکی میشود</t>
+  </si>
+  <si>
+    <t>تثبیت شده باشد</t>
+  </si>
+  <si>
+    <t>آیتمی ویرایش شود</t>
+  </si>
+  <si>
+    <t>در لیست های نمایشی یا پرینتی به رنگ قرمز در میاید</t>
+  </si>
+  <si>
+    <t>اگر کانتین پر باشد</t>
+  </si>
+  <si>
+    <t>اگر مقاصد مشخص باشد - درصورت نبودن باید پیشنهادی ندهد</t>
+  </si>
+  <si>
+    <t>امکان ذخیره سازی راننده گان یا راننده موقت فراهم میشود</t>
+  </si>
+  <si>
+    <t>داخل کانتین باشد</t>
+  </si>
+  <si>
+    <t>قبلا در قسمت باراندازباشد</t>
+  </si>
+  <si>
+    <t>به قسمت بارانداز یا غیر پیشنهادی میرود</t>
+  </si>
+  <si>
+    <t>نمایش خارج از حد مجاز تعداد پالت ها و جایگاه و وزن</t>
+  </si>
+  <si>
+    <t>اگر براساس ظرفیت کانتین پر شده باشد یا از ظرفیت هر کانتینی پر باشد</t>
+  </si>
+  <si>
+    <t>اگر کانتین پر باشد همه انتقال پیدا میکند به بار انداز</t>
+  </si>
+  <si>
+    <t>نمایش کالا ها در جایگاه های بارانداز</t>
   </si>
 </sst>
 </file>
@@ -630,18 +676,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="55.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -662,6 +708,9 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -670,6 +719,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
         <v>30</v>
       </c>
@@ -681,6 +733,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -692,6 +747,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -703,6 +761,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -714,6 +775,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -722,6 +786,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -730,6 +797,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
@@ -738,6 +808,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -746,6 +819,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11" t="s">
         <v>28</v>
       </c>
@@ -757,6 +833,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -768,6 +847,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -779,6 +861,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -787,6 +872,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -795,6 +883,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
       <c r="B16" t="s">
         <v>26</v>
       </c>
@@ -802,7 +893,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
       <c r="B17" t="s">
         <v>19</v>
       </c>
@@ -810,7 +904,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
       <c r="B18" t="s">
         <v>20</v>
       </c>
@@ -818,7 +915,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
       <c r="B19" t="s">
         <v>27</v>
       </c>
@@ -826,7 +926,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
@@ -834,7 +937,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
       <c r="B21" t="s">
         <v>31</v>
       </c>
@@ -845,7 +951,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
       <c r="B22" t="s">
         <v>33</v>
       </c>
@@ -853,7 +962,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
       <c r="B23" t="s">
         <v>34</v>
       </c>
@@ -861,7 +973,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
       <c r="B24" t="s">
         <v>35</v>
       </c>
@@ -869,7 +984,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
       <c r="B25" t="s">
         <v>36</v>
       </c>
@@ -877,7 +995,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
       <c r="B26" t="s">
         <v>37</v>
       </c>
@@ -885,7 +1006,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
       <c r="B27" t="s">
         <v>38</v>
       </c>
@@ -896,7 +1020,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
       <c r="B28" t="s">
         <v>39</v>
       </c>
@@ -907,7 +1034,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
       <c r="B29" t="s">
         <v>42</v>
       </c>
@@ -918,7 +1048,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
       <c r="B30" t="s">
         <v>44</v>
       </c>
@@ -926,7 +1059,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
       <c r="B31" t="s">
         <v>45</v>
       </c>
@@ -934,140 +1070,249 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
       <c r="B32" t="s">
         <v>47</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
         <v>48</v>
       </c>
-      <c r="C33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
         <v>49</v>
       </c>
-      <c r="C34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
         <v>50</v>
       </c>
-      <c r="C35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
         <v>46</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="D37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
         <v>51</v>
       </c>
-      <c r="C37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
         <v>54</v>
-      </c>
-      <c r="C38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>55</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
         <v>58</v>
       </c>
-      <c r="C42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
         <v>59</v>
       </c>
-      <c r="C43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
         <v>60</v>
       </c>
-      <c r="C44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
         <v>61</v>
       </c>
-      <c r="C45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
         <v>62</v>
       </c>
-      <c r="C46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+      <c r="E48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
         <v>64</v>
       </c>
-      <c r="C47" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1075,4 +1320,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>